--- a/miss_om.xlsx
+++ b/miss_om.xlsx
@@ -576,7 +576,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,18 +839,18 @@
     <hyperlink ref="G4" r:id="rId14"/>
     <hyperlink ref="H4" r:id="rId15"/>
     <hyperlink ref="I4" r:id="rId16"/>
-    <hyperlink ref="G5" r:id="rId17"/>
-    <hyperlink ref="G8" r:id="rId18"/>
-    <hyperlink ref="H8" r:id="rId19"/>
-    <hyperlink ref="I8" r:id="rId20"/>
-    <hyperlink ref="G6" r:id="rId21"/>
-    <hyperlink ref="H6" r:id="rId22"/>
-    <hyperlink ref="I6" r:id="rId23"/>
-    <hyperlink ref="G7" r:id="rId24"/>
-    <hyperlink ref="H7" r:id="rId25"/>
-    <hyperlink ref="I7" r:id="rId26"/>
-    <hyperlink ref="H5" r:id="rId27"/>
-    <hyperlink ref="I5" r:id="rId28"/>
+    <hyperlink ref="H5" r:id="rId17"/>
+    <hyperlink ref="I5" r:id="rId18"/>
+    <hyperlink ref="G8" r:id="rId19"/>
+    <hyperlink ref="H8" r:id="rId20"/>
+    <hyperlink ref="I8" r:id="rId21"/>
+    <hyperlink ref="G6" r:id="rId22"/>
+    <hyperlink ref="H6" r:id="rId23"/>
+    <hyperlink ref="I6" r:id="rId24"/>
+    <hyperlink ref="G7" r:id="rId25"/>
+    <hyperlink ref="H7" r:id="rId26"/>
+    <hyperlink ref="I7" r:id="rId27"/>
+    <hyperlink ref="G5" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/miss_om.xlsx
+++ b/miss_om.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Miss Guadeloupe</t>
   </si>
@@ -240,6 +240,30 @@
   </si>
   <si>
     <t>https://github.com/MKSeymour/MissFrance2023/blob/main/nouvellecal%C3%A9donie-3.png?raw=true</t>
+  </si>
+  <si>
+    <t>Rang4</t>
+  </si>
+  <si>
+    <t>https://github.com/MKSeymour/MissFrance2023/blob/main/guadeloupe-4.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/MKSeymour/MissFrance2023/blob/main/guyane-4.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/MKSeymour/MissFrance2023/blob/main/martinique-4.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/MKSeymour/MissFrance2023/blob/main/tahiti-4.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/MKSeymour/MissFrance2023/blob/main/nouvellecal%C3%A9donie-4.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/MKSeymour/MissFrance2023/blob/main/r%C3%A9union-4.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/MKSeymour/MissFrance2023/blob/main/saintmartin-4.png?raw=true</t>
   </si>
 </sst>
 </file>
@@ -573,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,7 +613,7 @@
     <col min="10" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -617,8 +641,11 @@
       <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,8 +673,11 @@
       <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -675,8 +705,11 @@
       <c r="I3" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -704,8 +737,11 @@
       <c r="I4" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -733,8 +769,11 @@
       <c r="I5" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -762,8 +801,11 @@
       <c r="I6" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -791,8 +833,11 @@
       <c r="I7" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -819,6 +864,9 @@
       </c>
       <c r="I8" s="2" t="s">
         <v>65</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -851,6 +899,13 @@
     <hyperlink ref="H7" r:id="rId26"/>
     <hyperlink ref="I7" r:id="rId27"/>
     <hyperlink ref="G5" r:id="rId28"/>
+    <hyperlink ref="J2" r:id="rId29"/>
+    <hyperlink ref="J3" r:id="rId30"/>
+    <hyperlink ref="J4" r:id="rId31"/>
+    <hyperlink ref="J5" r:id="rId32"/>
+    <hyperlink ref="J8" r:id="rId33"/>
+    <hyperlink ref="J6" r:id="rId34"/>
+    <hyperlink ref="J7" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/miss_om.xlsx
+++ b/miss_om.xlsx
@@ -86,9 +86,6 @@
     <t>René</t>
   </si>
   <si>
-    <t>Miss Nouvelle-Calédonie</t>
-  </si>
-  <si>
     <t>Nouvelle-Calédonie</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Océane</t>
   </si>
   <si>
-    <t>Miss Saint-Martin et Saint-Barthélémy</t>
-  </si>
-  <si>
     <t>Saint-Martin</t>
   </si>
   <si>
@@ -264,6 +258,12 @@
   </si>
   <si>
     <t>https://github.com/MKSeymour/MissFrance2023/blob/main/saintmartin-4.png?raw=true</t>
+  </si>
+  <si>
+    <t>Miss Nouvelle Calédonie</t>
+  </si>
+  <si>
+    <t>Miss Saint-Martin</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,7 +610,8 @@
     <col min="3" max="4" width="10.90625" style="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="40.08984375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.90625" style="1"/>
+    <col min="10" max="10" width="35.1796875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -630,19 +631,19 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
@@ -662,19 +663,19 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="116" x14ac:dyDescent="0.35">
@@ -694,19 +695,19 @@
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
@@ -726,147 +727,147 @@
         <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="145" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/miss_om.xlsx
+++ b/miss_om.xlsx
@@ -260,10 +260,10 @@
     <t>https://github.com/MKSeymour/MissFrance2023/blob/main/saintmartin-4.png?raw=true</t>
   </si>
   <si>
-    <t>Miss Nouvelle Calédonie</t>
-  </si>
-  <si>
     <t>Miss Saint-Martin</t>
+  </si>
+  <si>
+    <t>Miss Nouvelle-Calédonie</t>
   </si>
 </sst>
 </file>
@@ -599,15 +599,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.90625" style="1"/>
+    <col min="3" max="3" width="10.90625" style="1"/>
+    <col min="4" max="4" width="16.90625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="40.08984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="35.1796875" style="1" customWidth="1"/>
@@ -646,7 +647,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +679,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -710,7 +711,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -744,7 +745,7 @@
     </row>
     <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -776,7 +777,7 @@
     </row>
     <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
@@ -806,7 +807,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -838,7 +839,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>

--- a/miss_om.xlsx
+++ b/miss_om.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
-    <t>Miss Guadeloupe</t>
-  </si>
-  <si>
     <t>Miss</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>Indira Ampiot</t>
   </si>
   <si>
-    <t>Miss Guyane</t>
-  </si>
-  <si>
     <t>Shaïna Robin</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>Axelle René</t>
   </si>
   <si>
-    <t>Miss Martinique</t>
-  </si>
-  <si>
     <t>Axelle</t>
   </si>
   <si>
@@ -110,9 +101,6 @@
     <t>Inès</t>
   </si>
   <si>
-    <t>Miss Tahiti</t>
-  </si>
-  <si>
     <t>Herenui Tuheiava</t>
   </si>
   <si>
@@ -125,9 +113,6 @@
     <t>Tahiti</t>
   </si>
   <si>
-    <t>Miss Réunion</t>
-  </si>
-  <si>
     <t>Marion Marimoutou</t>
   </si>
   <si>
@@ -140,9 +125,6 @@
     <t>Réunion</t>
   </si>
   <si>
-    <t>Photo</t>
-  </si>
-  <si>
     <t>https://github.com/MKSeymour/MissFrance2023/blob/main/guyane_shaina.jpg?raw=true</t>
   </si>
   <si>
@@ -236,9 +218,6 @@
     <t>https://github.com/MKSeymour/MissFrance2023/blob/main/nouvellecal%C3%A9donie-3.png?raw=true</t>
   </si>
   <si>
-    <t>Rang4</t>
-  </si>
-  <si>
     <t>https://github.com/MKSeymour/MissFrance2023/blob/main/guadeloupe-4.png?raw=true</t>
   </si>
   <si>
@@ -260,10 +239,31 @@
     <t>https://github.com/MKSeymour/MissFrance2023/blob/main/saintmartin-4.png?raw=true</t>
   </si>
   <si>
-    <t>Miss Saint-Martin</t>
-  </si>
-  <si>
-    <t>Miss Nouvelle-Calédonie</t>
+    <t>miss_guadeloupe</t>
+  </si>
+  <si>
+    <t>miss_guyane</t>
+  </si>
+  <si>
+    <t>miss_martinique</t>
+  </si>
+  <si>
+    <t>miss_nouvelle_caledonie</t>
+  </si>
+  <si>
+    <t>miss_saint_martin</t>
+  </si>
+  <si>
+    <t>miss_tahiti</t>
+  </si>
+  <si>
+    <t>miss_reunion</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>RawPicture</t>
   </si>
 </sst>
 </file>
@@ -600,314 +600,313 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" style="1"/>
-    <col min="4" max="4" width="16.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="40.08984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="35.1796875" style="1" customWidth="1"/>
+    <col min="2" max="6" width="30.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" style="1"/>
+    <col min="9" max="9" width="16.90625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>72</v>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>77</v>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>74</v>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
-    <hyperlink ref="F8" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F2" r:id="rId7"/>
-    <hyperlink ref="G2" r:id="rId8"/>
-    <hyperlink ref="H2" r:id="rId9"/>
-    <hyperlink ref="I2" r:id="rId10"/>
-    <hyperlink ref="G3" r:id="rId11"/>
-    <hyperlink ref="H3" r:id="rId12"/>
-    <hyperlink ref="I3" r:id="rId13"/>
-    <hyperlink ref="G4" r:id="rId14"/>
-    <hyperlink ref="H4" r:id="rId15"/>
-    <hyperlink ref="I4" r:id="rId16"/>
-    <hyperlink ref="H5" r:id="rId17"/>
-    <hyperlink ref="I5" r:id="rId18"/>
-    <hyperlink ref="G8" r:id="rId19"/>
-    <hyperlink ref="H8" r:id="rId20"/>
-    <hyperlink ref="I8" r:id="rId21"/>
-    <hyperlink ref="G6" r:id="rId22"/>
-    <hyperlink ref="H6" r:id="rId23"/>
-    <hyperlink ref="I6" r:id="rId24"/>
-    <hyperlink ref="G7" r:id="rId25"/>
-    <hyperlink ref="H7" r:id="rId26"/>
-    <hyperlink ref="I7" r:id="rId27"/>
-    <hyperlink ref="G5" r:id="rId28"/>
-    <hyperlink ref="J2" r:id="rId29"/>
-    <hyperlink ref="J3" r:id="rId30"/>
-    <hyperlink ref="J4" r:id="rId31"/>
-    <hyperlink ref="J5" r:id="rId32"/>
-    <hyperlink ref="J8" r:id="rId33"/>
-    <hyperlink ref="J6" r:id="rId34"/>
-    <hyperlink ref="J7" r:id="rId35"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId7"/>
+    <hyperlink ref="D2" r:id="rId8"/>
+    <hyperlink ref="E2" r:id="rId9"/>
+    <hyperlink ref="F2" r:id="rId10"/>
+    <hyperlink ref="D3" r:id="rId11"/>
+    <hyperlink ref="E3" r:id="rId12"/>
+    <hyperlink ref="F3" r:id="rId13"/>
+    <hyperlink ref="D4" r:id="rId14"/>
+    <hyperlink ref="E4" r:id="rId15"/>
+    <hyperlink ref="F4" r:id="rId16"/>
+    <hyperlink ref="E5" r:id="rId17"/>
+    <hyperlink ref="F5" r:id="rId18"/>
+    <hyperlink ref="D8" r:id="rId19"/>
+    <hyperlink ref="E8" r:id="rId20"/>
+    <hyperlink ref="F8" r:id="rId21"/>
+    <hyperlink ref="D6" r:id="rId22"/>
+    <hyperlink ref="E6" r:id="rId23"/>
+    <hyperlink ref="F6" r:id="rId24"/>
+    <hyperlink ref="D7" r:id="rId25"/>
+    <hyperlink ref="E7" r:id="rId26"/>
+    <hyperlink ref="F7" r:id="rId27"/>
+    <hyperlink ref="D5" r:id="rId28"/>
+    <hyperlink ref="B2" r:id="rId29"/>
+    <hyperlink ref="B3" r:id="rId30"/>
+    <hyperlink ref="B4" r:id="rId31"/>
+    <hyperlink ref="B5" r:id="rId32"/>
+    <hyperlink ref="B8" r:id="rId33"/>
+    <hyperlink ref="B6" r:id="rId34"/>
+    <hyperlink ref="B7" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
